--- a/VF_W_Gearboxes.xlsx
+++ b/VF_W_Gearboxes.xlsx
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="46">
   <si>
     <t xml:space="preserve">Max Rated Torque
 (Nm)</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">VF 30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0..41</t>
   </si>
   <si>
     <t xml:space="preserve">VF 44</t>
@@ -175,9 +172,6 @@
     <t xml:space="preserve">W/VF 86/150</t>
   </si>
   <si>
-    <t xml:space="preserve">1..5</t>
-  </si>
-  <si>
     <t xml:space="preserve">VF 185</t>
   </si>
   <si>
@@ -185,9 +179,6 @@
   </si>
   <si>
     <t xml:space="preserve">W/VF 86/185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9*20</t>
   </si>
   <si>
     <t xml:space="preserve">VF 210</t>
@@ -396,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,38 +480,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1129,13 +1088,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -1171,8 +1130,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>22</v>
+      <c r="A2" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -1256,10 +1215,18 @@
       <c r="A4" s="6" t="n">
         <v>240</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>2.8</v>
       </c>
@@ -1284,19 +1251,35 @@
       <c r="M4" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>315</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.9</v>
       </c>
@@ -1321,19 +1304,35 @@
       <c r="M5" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>450</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2</v>
       </c>
@@ -1358,19 +1357,35 @@
       <c r="M6" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>570</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.6</v>
       </c>
@@ -1395,19 +1410,35 @@
       <c r="M7" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -1432,19 +1463,35 @@
       <c r="M8" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>900</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
@@ -1469,19 +1516,35 @@
       <c r="M9" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -1506,19 +1569,35 @@
       <c r="M10" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1520</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.59</v>
       </c>
@@ -1543,23 +1622,39 @@
       <c r="M11" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2280</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.39</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>230</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -1571,7 +1666,7 @@
       <c r="J12" s="15" t="n">
         <v>0.61</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>210</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -1580,23 +1675,39 @@
       <c r="M12" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2700</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>230</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -1608,7 +1719,7 @@
       <c r="J13" s="18" t="n">
         <v>0.52</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>210</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -1617,11 +1728,25 @@
       <c r="M13" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
-    </row>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:M1"/>
@@ -1651,7 +1776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -1690,7 +1815,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -1957,16 +2082,16 @@
       <c r="I7" s="17" t="n">
         <v>80</v>
       </c>
-      <c r="J7" s="26" t="n">
+      <c r="J7" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="K7" s="27" t="n">
+      <c r="K7" s="16" t="n">
         <v>250</v>
       </c>
-      <c r="L7" s="27" t="n">
+      <c r="L7" s="16" t="n">
         <v>2.2</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="M7" s="17" t="n">
         <v>83</v>
       </c>
       <c r="N7" s="15" t="n">
@@ -2036,7 +2161,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
+      <c r="A9" s="26" t="n">
         <v>30</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -2195,13 +2320,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>60</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>2335</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -2213,7 +2338,7 @@
       <c r="F12" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>215</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -2225,7 +2350,7 @@
       <c r="J12" s="15" t="n">
         <v>23.3</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>200</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -2237,7 +2362,7 @@
       <c r="N12" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>180</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -2254,7 +2379,7 @@
       <c r="B13" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>215</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -2266,7 +2391,7 @@
       <c r="F13" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>195</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -2278,7 +2403,7 @@
       <c r="J13" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>180</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -2290,7 +2415,7 @@
       <c r="N13" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>160</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -2382,7 +2507,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -2421,7 +2546,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -2767,7 +2892,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
+      <c r="A9" s="26" t="n">
         <v>90</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -2926,13 +3051,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>180</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>2.8</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>320</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -2944,7 +3069,7 @@
       <c r="F12" s="15" t="n">
         <v>5</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>280</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -2956,7 +3081,7 @@
       <c r="J12" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>235</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -2968,7 +3093,7 @@
       <c r="N12" s="15" t="n">
         <v>15.6</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>215</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -2985,7 +3110,7 @@
       <c r="B13" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>280</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -2997,7 +3122,7 @@
       <c r="F13" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>220</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -3009,7 +3134,7 @@
       <c r="J13" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>215</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -3021,7 +3146,7 @@
       <c r="N13" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>195</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -3113,7 +3238,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -3151,8 +3276,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>25</v>
+      <c r="A2" s="23" t="s">
+        <v>24</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -3236,10 +3361,18 @@
       <c r="A4" s="6" t="n">
         <v>250</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.6</v>
       </c>
@@ -3264,19 +3397,35 @@
       <c r="M4" s="17" t="n">
         <v>57</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>3</v>
       </c>
@@ -3301,19 +3450,35 @@
       <c r="M5" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>400</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -3338,19 +3503,35 @@
       <c r="M6" s="17" t="n">
         <v>46</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>525</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.7</v>
       </c>
@@ -3375,19 +3556,35 @@
       <c r="M7" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -3412,19 +3609,35 @@
       <c r="M8" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>920</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
@@ -3449,19 +3662,35 @@
       <c r="M9" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -3486,19 +3715,35 @@
       <c r="M10" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1500</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.6</v>
       </c>
@@ -3523,23 +3768,39 @@
       <c r="M11" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2100</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.43</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>400</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -3551,7 +3812,7 @@
       <c r="J12" s="15" t="n">
         <v>0.67</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>370</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -3560,23 +3821,39 @@
       <c r="M12" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2800</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.32</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>400</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -3588,7 +3865,7 @@
       <c r="J13" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>370</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -3597,10 +3874,18 @@
       <c r="M13" s="20" t="n">
         <v>26</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3631,7 +3916,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -3668,7 +3953,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -4067,7 +4352,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
+      <c r="A10" s="26" t="n">
         <v>40</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -4173,13 +4458,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>56</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.9</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>355</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -4191,7 +4476,7 @@
       <c r="F12" s="15" t="n">
         <v>16.1</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>325</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -4203,7 +4488,7 @@
       <c r="J12" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>300</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -4215,7 +4500,7 @@
       <c r="N12" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>265</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -4232,7 +4517,7 @@
       <c r="B13" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>330</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -4244,7 +4529,7 @@
       <c r="F13" s="15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>300</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -4256,7 +4541,7 @@
       <c r="J13" s="15" t="n">
         <v>21.9</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>280</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -4268,7 +4553,7 @@
       <c r="N13" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>250</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -4285,7 +4570,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>305</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -4297,7 +4582,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>275</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -4309,7 +4594,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>255</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -4321,7 +4606,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>225</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -4413,7 +4698,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -4450,7 +4735,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -4849,7 +5134,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
+      <c r="A10" s="26" t="n">
         <v>120</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -4955,13 +5240,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>168</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>410</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -4973,7 +5258,7 @@
       <c r="F12" s="15" t="n">
         <v>514</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>390</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -4985,7 +5270,7 @@
       <c r="J12" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>355</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -4997,7 +5282,7 @@
       <c r="N12" s="15" t="n">
         <v>16.7</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>325</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -5014,7 +5299,7 @@
       <c r="B13" s="15" t="n">
         <v>2.6</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>410</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -5026,7 +5311,7 @@
       <c r="F13" s="15" t="n">
         <v>4.7</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>390</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -5038,7 +5323,7 @@
       <c r="J13" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>330</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -5050,7 +5335,7 @@
       <c r="N13" s="15" t="n">
         <v>14.6</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>300</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -5067,7 +5352,7 @@
       <c r="B14" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>320</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -5079,7 +5364,7 @@
       <c r="F14" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>310</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -5091,7 +5376,7 @@
       <c r="J14" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>305</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -5103,7 +5388,7 @@
       <c r="N14" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>275</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -5195,7 +5480,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -5232,7 +5517,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -5316,10 +5601,18 @@
       <c r="A4" s="10" t="n">
         <v>230</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.9</v>
       </c>
@@ -5344,19 +5637,35 @@
       <c r="M4" s="17" t="n">
         <v>54</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>3</v>
       </c>
@@ -5381,19 +5690,35 @@
       <c r="M5" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -5418,19 +5743,35 @@
       <c r="M6" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>525</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.7</v>
       </c>
@@ -5455,19 +5796,35 @@
       <c r="M7" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>700</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -5492,19 +5849,35 @@
       <c r="M8" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>920</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
@@ -5529,19 +5902,35 @@
       <c r="M9" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
+      <c r="A10" s="26" t="n">
         <v>1380</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.65</v>
       </c>
@@ -5566,19 +5955,35 @@
       <c r="M10" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1840</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.49</v>
       </c>
@@ -5603,23 +6008,39 @@
       <c r="M11" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2116</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.43</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>550</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -5631,7 +6052,7 @@
       <c r="J12" s="15" t="n">
         <v>0.66</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>500</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -5640,23 +6061,39 @@
       <c r="M12" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2760</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>550</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -5668,7 +6105,7 @@
       <c r="J13" s="18" t="n">
         <v>0.51</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>500</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -5677,10 +6114,18 @@
       <c r="M13" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5711,7 +6156,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -5748,7 +6193,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -6253,13 +6698,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>56</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.9</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>710</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -6271,7 +6716,7 @@
       <c r="F12" s="15" t="n">
         <v>16.1</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>645</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -6283,7 +6728,7 @@
       <c r="J12" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>600</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -6295,7 +6740,7 @@
       <c r="N12" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>535</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -6312,7 +6757,7 @@
       <c r="B13" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>630</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -6324,7 +6769,7 @@
       <c r="F13" s="15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>570</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -6336,7 +6781,7 @@
       <c r="J13" s="15" t="n">
         <v>21.9</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>530</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -6348,7 +6793,7 @@
       <c r="N13" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>470</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -6365,7 +6810,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>560</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -6377,7 +6822,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>505</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -6389,7 +6834,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>470</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -6401,7 +6846,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>420</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -6493,7 +6938,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -6530,7 +6975,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -7035,13 +7480,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>168</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>800</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -7053,7 +7498,7 @@
       <c r="F12" s="15" t="n">
         <v>5.4</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>775</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -7065,7 +7510,7 @@
       <c r="J12" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>710</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -7077,7 +7522,7 @@
       <c r="N12" s="15" t="n">
         <v>16.7</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>645</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -7094,7 +7539,7 @@
       <c r="B13" s="15" t="n">
         <v>2.6</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>720</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -7106,7 +7551,7 @@
       <c r="F13" s="15" t="n">
         <v>4.7</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>685</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -7118,7 +7563,7 @@
       <c r="J13" s="15" t="n">
         <v>7.3</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>630</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -7130,7 +7575,7 @@
       <c r="N13" s="15" t="n">
         <v>14.6</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>570</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -7147,7 +7592,7 @@
       <c r="B14" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>620</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -7159,7 +7604,7 @@
       <c r="F14" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>590</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -7171,7 +7616,7 @@
       <c r="J14" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>560</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -7183,7 +7628,7 @@
       <c r="N14" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>505</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -7275,7 +7720,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -7312,7 +7757,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -7396,10 +7841,18 @@
       <c r="A4" s="10" t="n">
         <v>230</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.9</v>
       </c>
@@ -7424,19 +7877,35 @@
       <c r="M4" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>3</v>
       </c>
@@ -7461,19 +7930,35 @@
       <c r="M5" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -7498,19 +7983,35 @@
       <c r="M6" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>540</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.7</v>
       </c>
@@ -7535,19 +8036,35 @@
       <c r="M7" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>720</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -7572,19 +8089,35 @@
       <c r="M8" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>1080</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>0.83</v>
       </c>
@@ -7609,19 +8142,35 @@
       <c r="M9" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1350</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.67</v>
       </c>
@@ -7646,19 +8195,35 @@
       <c r="M10" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1656</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.54</v>
       </c>
@@ -7683,23 +8248,39 @@
       <c r="M11" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2070</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.43</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>1050</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -7711,7 +8292,7 @@
       <c r="J12" s="15" t="n">
         <v>0.68</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>1000</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -7720,23 +8301,39 @@
       <c r="M12" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2800</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.32</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>1050</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -7748,7 +8345,7 @@
       <c r="J13" s="18" t="n">
         <v>0.5</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -7757,13 +8354,21 @@
       <c r="M13" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q14" s="35"/>
+      <c r="Q14" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7916,52 +8521,52 @@
       <c r="A4" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="13" t="n">
         <v>71</v>
       </c>
-      <c r="C4" s="24" t="n">
+      <c r="C4" s="14" t="n">
         <v>20</v>
       </c>
-      <c r="D4" s="24" t="n">
+      <c r="D4" s="14" t="n">
         <v>0.19</v>
       </c>
-      <c r="E4" s="25" t="n">
+      <c r="E4" s="17" t="n">
         <v>81</v>
       </c>
-      <c r="F4" s="23" t="n">
+      <c r="F4" s="13" t="n">
         <v>129</v>
       </c>
-      <c r="G4" s="24" t="n">
+      <c r="G4" s="14" t="n">
         <v>18</v>
       </c>
-      <c r="H4" s="24" t="n">
+      <c r="H4" s="14" t="n">
         <v>0.3</v>
       </c>
-      <c r="I4" s="25" t="n">
+      <c r="I4" s="17" t="n">
         <v>82</v>
       </c>
-      <c r="J4" s="23" t="n">
+      <c r="J4" s="13" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="24" t="n">
+      <c r="K4" s="14" t="n">
         <v>16</v>
       </c>
-      <c r="L4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="25" t="n">
+      <c r="L4" s="14" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M4" s="17" t="n">
         <v>84</v>
       </c>
-      <c r="N4" s="23" t="n">
+      <c r="N4" s="13" t="n">
         <v>400</v>
       </c>
-      <c r="O4" s="24" t="n">
+      <c r="O4" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="P4" s="24" t="n">
+      <c r="P4" s="14" t="n">
         <v>0.58</v>
       </c>
-      <c r="Q4" s="25" t="n">
+      <c r="Q4" s="17" t="n">
         <v>87</v>
       </c>
     </row>
@@ -7969,52 +8574,52 @@
       <c r="A5" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B5" s="26" t="n">
+      <c r="B5" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="C5" s="27" t="n">
+      <c r="C5" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="D5" s="27" t="n">
+      <c r="D5" s="16" t="n">
         <v>0.14</v>
       </c>
-      <c r="E5" s="25" t="n">
+      <c r="E5" s="17" t="n">
         <v>77</v>
       </c>
-      <c r="F5" s="26" t="n">
+      <c r="F5" s="15" t="n">
         <v>90</v>
       </c>
-      <c r="G5" s="27" t="n">
+      <c r="G5" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="H5" s="27" t="n">
+      <c r="H5" s="16" t="n">
         <v>0.22</v>
       </c>
-      <c r="I5" s="25" t="n">
+      <c r="I5" s="17" t="n">
         <v>79</v>
       </c>
-      <c r="J5" s="26" t="n">
+      <c r="J5" s="15" t="n">
         <v>140</v>
       </c>
-      <c r="K5" s="27" t="n">
+      <c r="K5" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="L5" s="27" t="n">
+      <c r="L5" s="16" t="n">
         <v>0.3</v>
       </c>
-      <c r="M5" s="25" t="n">
+      <c r="M5" s="17" t="n">
         <v>81</v>
       </c>
-      <c r="N5" s="26" t="n">
+      <c r="N5" s="15" t="n">
         <v>280</v>
       </c>
-      <c r="O5" s="27" t="n">
+      <c r="O5" s="16" t="n">
         <v>12</v>
       </c>
-      <c r="P5" s="27" t="n">
+      <c r="P5" s="16" t="n">
         <v>0.41</v>
       </c>
-      <c r="Q5" s="25" t="n">
+      <c r="Q5" s="17" t="n">
         <v>85</v>
       </c>
     </row>
@@ -8022,52 +8627,52 @@
       <c r="A6" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B6" s="26" t="n">
+      <c r="B6" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="C6" s="27" t="n">
+      <c r="C6" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="D6" s="27" t="n">
+      <c r="D6" s="16" t="n">
         <v>0.11</v>
       </c>
-      <c r="E6" s="25" t="n">
+      <c r="E6" s="17" t="n">
         <v>71</v>
       </c>
-      <c r="F6" s="26" t="n">
+      <c r="F6" s="15" t="n">
         <v>60</v>
       </c>
-      <c r="G6" s="27" t="n">
+      <c r="G6" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="H6" s="27" t="n">
+      <c r="H6" s="16" t="n">
         <v>0.17</v>
       </c>
-      <c r="I6" s="25" t="n">
+      <c r="I6" s="17" t="n">
         <v>74</v>
       </c>
-      <c r="J6" s="26" t="n">
+      <c r="J6" s="15" t="n">
         <v>93</v>
       </c>
-      <c r="K6" s="27" t="n">
+      <c r="K6" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="L6" s="27" t="n">
+      <c r="L6" s="16" t="n">
         <v>0.24</v>
       </c>
-      <c r="M6" s="25" t="n">
+      <c r="M6" s="17" t="n">
         <v>76</v>
       </c>
-      <c r="N6" s="26" t="n">
+      <c r="N6" s="15" t="n">
         <v>187</v>
       </c>
-      <c r="O6" s="27" t="n">
+      <c r="O6" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="P6" s="27" t="n">
+      <c r="P6" s="16" t="n">
         <v>0.34</v>
       </c>
-      <c r="Q6" s="25" t="n">
+      <c r="Q6" s="17" t="n">
         <v>81</v>
       </c>
     </row>
@@ -8075,52 +8680,52 @@
       <c r="A7" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B7" s="26" t="n">
+      <c r="B7" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="C7" s="27" t="n">
+      <c r="C7" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="D7" s="27" t="n">
+      <c r="D7" s="16" t="n">
         <v>0.09</v>
       </c>
-      <c r="E7" s="25" t="n">
+      <c r="E7" s="17" t="n">
         <v>67</v>
       </c>
-      <c r="F7" s="26" t="n">
+      <c r="F7" s="15" t="n">
         <v>45</v>
       </c>
-      <c r="G7" s="27" t="n">
+      <c r="G7" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="H7" s="27" t="n">
+      <c r="H7" s="16" t="n">
         <v>0.14</v>
       </c>
-      <c r="I7" s="25" t="n">
+      <c r="I7" s="17" t="n">
         <v>70</v>
       </c>
-      <c r="J7" s="26" t="n">
+      <c r="J7" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="K7" s="27" t="n">
+      <c r="K7" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="L7" s="27" t="n">
+      <c r="L7" s="16" t="n">
         <v>0.19</v>
       </c>
-      <c r="M7" s="25" t="n">
+      <c r="M7" s="17" t="n">
         <v>73</v>
       </c>
-      <c r="N7" s="26" t="n">
+      <c r="N7" s="15" t="n">
         <v>140</v>
       </c>
-      <c r="O7" s="27" t="n">
+      <c r="O7" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="P7" s="27" t="n">
+      <c r="P7" s="16" t="n">
         <v>0.26</v>
       </c>
-      <c r="Q7" s="25" t="n">
+      <c r="Q7" s="17" t="n">
         <v>78</v>
       </c>
     </row>
@@ -8128,52 +8733,52 @@
       <c r="A8" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="B8" s="26" t="n">
+      <c r="B8" s="15" t="n">
         <v>16.7</v>
       </c>
-      <c r="C8" s="27" t="n">
+      <c r="C8" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="D8" s="27" t="n">
+      <c r="D8" s="16" t="n">
         <v>0.07</v>
       </c>
-      <c r="E8" s="25" t="n">
+      <c r="E8" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="F8" s="26" t="n">
+      <c r="F8" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="G8" s="27" t="n">
+      <c r="G8" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="H8" s="27" t="n">
+      <c r="H8" s="16" t="n">
         <v>0.12</v>
       </c>
-      <c r="I8" s="25" t="n">
+      <c r="I8" s="17" t="n">
         <v>61</v>
       </c>
-      <c r="J8" s="26" t="n">
+      <c r="J8" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="K8" s="27" t="n">
+      <c r="K8" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="L8" s="27" t="n">
+      <c r="L8" s="16" t="n">
         <v>0.15</v>
       </c>
-      <c r="M8" s="25" t="n">
+      <c r="M8" s="17" t="n">
         <v>65</v>
       </c>
-      <c r="N8" s="26" t="n">
+      <c r="N8" s="15" t="n">
         <v>93</v>
       </c>
-      <c r="O8" s="27" t="n">
+      <c r="O8" s="16" t="n">
         <v>15</v>
       </c>
-      <c r="P8" s="27" t="n">
+      <c r="P8" s="16" t="n">
         <v>0.21</v>
       </c>
-      <c r="Q8" s="25" t="n">
+      <c r="Q8" s="17" t="n">
         <v>71</v>
       </c>
     </row>
@@ -8181,52 +8786,52 @@
       <c r="A9" s="10" t="n">
         <v>40</v>
       </c>
-      <c r="B9" s="26" t="n">
+      <c r="B9" s="15" t="n">
         <v>12.5</v>
       </c>
-      <c r="C9" s="27" t="n">
+      <c r="C9" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="D9" s="27" t="n">
+      <c r="D9" s="16" t="n">
         <v>0.06</v>
       </c>
-      <c r="E9" s="25" t="n">
+      <c r="E9" s="17" t="n">
         <v>53</v>
       </c>
-      <c r="F9" s="26" t="n">
+      <c r="F9" s="15" t="n">
         <v>23</v>
       </c>
-      <c r="G9" s="27" t="n">
+      <c r="G9" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="H9" s="27" t="n">
+      <c r="H9" s="16" t="n">
         <v>0.09</v>
       </c>
-      <c r="I9" s="25" t="n">
+      <c r="I9" s="17" t="n">
         <v>56</v>
       </c>
-      <c r="J9" s="26" t="n">
+      <c r="J9" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="K9" s="27" t="n">
+      <c r="K9" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="L9" s="27" t="n">
+      <c r="L9" s="16" t="n">
         <v>0.12</v>
       </c>
-      <c r="M9" s="25" t="n">
+      <c r="M9" s="17" t="n">
         <v>60</v>
       </c>
-      <c r="N9" s="26" t="n">
+      <c r="N9" s="15" t="n">
         <v>70</v>
       </c>
-      <c r="O9" s="27" t="n">
+      <c r="O9" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="P9" s="27" t="n">
+      <c r="P9" s="16" t="n">
         <v>0.16</v>
       </c>
-      <c r="Q9" s="25" t="n">
+      <c r="Q9" s="17" t="n">
         <v>66</v>
       </c>
     </row>
@@ -8234,52 +8839,52 @@
       <c r="A10" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="B10" s="26" t="n">
+      <c r="B10" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="C10" s="27" t="n">
+      <c r="C10" s="16" t="n">
         <v>22</v>
       </c>
-      <c r="D10" s="27" t="n">
+      <c r="D10" s="16" t="n">
         <v>0.05</v>
       </c>
-      <c r="E10" s="25" t="n">
+      <c r="E10" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="F10" s="26" t="n">
+      <c r="F10" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="G10" s="27" t="n">
+      <c r="G10" s="16" t="n">
         <v>20</v>
       </c>
-      <c r="H10" s="27" t="n">
+      <c r="H10" s="16" t="n">
         <v>0.07</v>
       </c>
-      <c r="I10" s="25" t="n">
+      <c r="I10" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="J10" s="26" t="n">
+      <c r="J10" s="15" t="n">
         <v>23.3</v>
       </c>
-      <c r="K10" s="27" t="n">
+      <c r="K10" s="16" t="n">
         <v>19</v>
       </c>
-      <c r="L10" s="27" t="n">
+      <c r="L10" s="16" t="n">
         <v>0.09</v>
       </c>
-      <c r="M10" s="25" t="n">
+      <c r="M10" s="17" t="n">
         <v>51</v>
       </c>
-      <c r="N10" s="26" t="n">
+      <c r="N10" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="O10" s="27" t="n">
+      <c r="O10" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="P10" s="27" t="n">
+      <c r="P10" s="16" t="n">
         <v>0.12</v>
       </c>
-      <c r="Q10" s="25" t="n">
+      <c r="Q10" s="17" t="n">
         <v>59</v>
       </c>
     </row>
@@ -8287,52 +8892,52 @@
       <c r="A11" s="10" t="n">
         <v>70</v>
       </c>
-      <c r="B11" s="28" t="n">
+      <c r="B11" s="18" t="n">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="19" t="n">
         <v>19</v>
       </c>
-      <c r="D11" s="29" t="n">
+      <c r="D11" s="19" t="n">
         <v>0.04</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="E11" s="20" t="n">
         <v>41</v>
       </c>
-      <c r="F11" s="28" t="n">
+      <c r="F11" s="18" t="n">
         <v>13</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="19" t="n">
         <v>17</v>
       </c>
-      <c r="H11" s="29" t="n">
+      <c r="H11" s="19" t="n">
         <v>0.05</v>
       </c>
-      <c r="I11" s="30" t="n">
+      <c r="I11" s="20" t="n">
         <v>45</v>
       </c>
-      <c r="J11" s="28" t="n">
+      <c r="J11" s="18" t="n">
         <v>20</v>
       </c>
-      <c r="K11" s="29" t="n">
+      <c r="K11" s="19" t="n">
         <v>15</v>
       </c>
-      <c r="L11" s="29" t="n">
+      <c r="L11" s="19" t="n">
         <v>0.07</v>
       </c>
-      <c r="M11" s="30" t="n">
+      <c r="M11" s="20" t="n">
         <v>48</v>
       </c>
-      <c r="N11" s="28" t="n">
+      <c r="N11" s="18" t="n">
         <v>40</v>
       </c>
-      <c r="O11" s="29" t="n">
+      <c r="O11" s="19" t="n">
         <v>11</v>
       </c>
-      <c r="P11" s="29" t="n">
+      <c r="P11" s="19" t="n">
         <v>0.08</v>
       </c>
-      <c r="Q11" s="30" t="n">
+      <c r="Q11" s="20" t="n">
         <v>55</v>
       </c>
     </row>
@@ -8365,7 +8970,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -8402,7 +9007,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -8907,13 +9512,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>56</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.9</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>1200</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -8925,7 +9530,7 @@
       <c r="F12" s="15" t="n">
         <v>16.1</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>1080</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -8937,7 +9542,7 @@
       <c r="J12" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>960</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -8949,7 +9554,7 @@
       <c r="N12" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>720</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -8966,7 +9571,7 @@
       <c r="B13" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>1200</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -8978,7 +9583,7 @@
       <c r="F13" s="15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>1050</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -8990,7 +9595,7 @@
       <c r="J13" s="15" t="n">
         <v>21.9</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>930</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -9002,7 +9607,7 @@
       <c r="N13" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>698</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -9019,7 +9624,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>1150</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -9031,7 +9636,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>950</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -9043,7 +9648,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>880</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -9055,7 +9660,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>660</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -9147,7 +9752,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -9184,7 +9789,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -9689,13 +10294,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>300</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="19" t="n">
         <v>1100</v>
       </c>
       <c r="D12" s="19" t="n">
@@ -9707,7 +10312,7 @@
       <c r="F12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="19" t="n">
         <v>1000</v>
       </c>
       <c r="H12" s="19" t="n">
@@ -9719,7 +10324,7 @@
       <c r="J12" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="K12" s="29" t="n">
+      <c r="K12" s="19" t="n">
         <v>900</v>
       </c>
       <c r="L12" s="19" t="n">
@@ -9731,7 +10336,7 @@
       <c r="N12" s="18" t="n">
         <v>9.3</v>
       </c>
-      <c r="O12" s="29" t="n">
+      <c r="O12" s="19" t="n">
         <v>800</v>
       </c>
       <c r="P12" s="19" t="n">
@@ -9770,7 +10375,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -9807,7 +10412,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -9891,10 +10496,18 @@
       <c r="A4" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.2</v>
       </c>
@@ -9919,19 +10532,35 @@
       <c r="M4" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -9956,19 +10585,35 @@
       <c r="M5" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>1.5</v>
       </c>
@@ -9993,19 +10638,35 @@
       <c r="M6" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>760</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.2</v>
       </c>
@@ -10030,19 +10691,35 @@
       <c r="M7" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>960</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>0.94</v>
       </c>
@@ -10067,19 +10744,35 @@
       <c r="M8" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -10104,19 +10797,35 @@
       <c r="M9" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1520</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.59</v>
       </c>
@@ -10141,19 +10850,35 @@
       <c r="M10" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.5</v>
       </c>
@@ -10178,23 +10903,39 @@
       <c r="M11" s="17" t="n">
         <v>28</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2560</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.35</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>1850</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -10206,7 +10947,7 @@
       <c r="J12" s="15" t="n">
         <v>0.55</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>1800</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -10215,23 +10956,39 @@
       <c r="M12" s="17" t="n">
         <v>23</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>3200</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>1850</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -10243,7 +11000,7 @@
       <c r="J13" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>1800</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -10252,10 +11009,18 @@
       <c r="M13" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10286,7 +11051,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -10323,7 +11088,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -10828,13 +11593,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>56</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.9</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>1750</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -10846,7 +11611,7 @@
       <c r="F12" s="15" t="n">
         <v>16.1</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>1500</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -10858,7 +11623,7 @@
       <c r="J12" s="15" t="n">
         <v>25</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>1370</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -10870,7 +11635,7 @@
       <c r="N12" s="15" t="n">
         <v>50</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>1028</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -10887,7 +11652,7 @@
       <c r="B13" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>1700</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -10899,7 +11664,7 @@
       <c r="F13" s="15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>1450</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -10911,7 +11676,7 @@
       <c r="J13" s="15" t="n">
         <v>21.9</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>1330</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -10923,7 +11688,7 @@
       <c r="N13" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>998</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -10940,7 +11705,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>1550</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -10952,7 +11717,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>1350</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -10964,7 +11729,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>1250</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -10976,7 +11741,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>938</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -11040,8 +11805,8 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="M16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="M16" s="27"/>
+      <c r="Q16" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -11072,7 +11837,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -11109,7 +11874,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -11614,13 +12379,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>240</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>1800</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -11632,7 +12397,7 @@
       <c r="F12" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>1700</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -11644,7 +12409,7 @@
       <c r="J12" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>1550</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -11656,7 +12421,7 @@
       <c r="N12" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>1350</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -11673,7 +12438,7 @@
       <c r="B13" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="19" t="n">
         <v>1450</v>
       </c>
       <c r="D13" s="19" t="n">
@@ -11685,7 +12450,7 @@
       <c r="F13" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>1350</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -11697,7 +12462,7 @@
       <c r="J13" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>1300</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -11709,7 +12474,7 @@
       <c r="N13" s="18" t="n">
         <v>9.3</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="19" t="n">
         <v>1150</v>
       </c>
       <c r="P13" s="19" t="n">
@@ -11748,7 +12513,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -11785,7 +12550,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -11869,10 +12634,18 @@
       <c r="A4" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>4.5</v>
       </c>
@@ -11897,19 +12670,35 @@
       <c r="M4" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>225</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>4</v>
       </c>
@@ -11934,19 +12723,35 @@
       <c r="M5" s="17" t="n">
         <v>63</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>3</v>
       </c>
@@ -11971,19 +12776,35 @@
       <c r="M6" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>345</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>2.6</v>
       </c>
@@ -12008,19 +12829,35 @@
       <c r="M7" s="17" t="n">
         <v>58</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>460</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>2</v>
       </c>
@@ -12039,25 +12876,41 @@
       <c r="K8" s="16" t="n">
         <v>2600</v>
       </c>
-      <c r="L8" s="16" t="s">
-        <v>38</v>
+      <c r="L8" s="16" t="n">
+        <v>1.5</v>
       </c>
       <c r="M8" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>529</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1.7</v>
       </c>
@@ -12082,19 +12935,35 @@
       <c r="M9" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>690</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -12119,19 +12988,35 @@
       <c r="M10" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>920</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.98</v>
       </c>
@@ -12156,23 +13041,39 @@
       <c r="M11" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>1380</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>2700</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -12184,7 +13085,7 @@
       <c r="J12" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>2600</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -12193,23 +13094,39 @@
       <c r="M12" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>1840</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17"/>
+      <c r="B13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="15" t="n">
         <v>0.49</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>2700</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -12221,7 +13138,7 @@
       <c r="J13" s="15" t="n">
         <v>0.76</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>2600</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -12230,23 +13147,39 @@
       <c r="M13" s="17" t="n">
         <v>38</v>
       </c>
-      <c r="N13" s="15"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="17"/>
+      <c r="N13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <v>2944</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="20"/>
+      <c r="B14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F14" s="18" t="n">
         <v>0.31</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="19" t="n">
         <v>2700</v>
       </c>
       <c r="H14" s="19" t="n">
@@ -12258,7 +13191,7 @@
       <c r="J14" s="18" t="n">
         <v>0.48</v>
       </c>
-      <c r="K14" s="29" t="n">
+      <c r="K14" s="19" t="n">
         <v>2600</v>
       </c>
       <c r="L14" s="19" t="n">
@@ -12267,10 +13200,18 @@
       <c r="M14" s="20" t="n">
         <v>27</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="20"/>
+      <c r="N14" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -12301,7 +13242,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -12338,7 +13279,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -12843,13 +13784,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>80</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>2800</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -12861,7 +13802,7 @@
       <c r="F12" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>2400</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -12873,7 +13814,7 @@
       <c r="J12" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>2120</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -12885,7 +13826,7 @@
       <c r="N12" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>1590</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -12902,7 +13843,7 @@
       <c r="B13" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="19" t="n">
         <v>2300</v>
       </c>
       <c r="D13" s="19" t="n">
@@ -12914,7 +13855,7 @@
       <c r="F13" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>2000</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -12926,7 +13867,7 @@
       <c r="J13" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>1900</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -12938,7 +13879,7 @@
       <c r="N13" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="19" t="n">
         <v>1425</v>
       </c>
       <c r="P13" s="19" t="n">
@@ -12977,7 +13918,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -13014,7 +13955,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -13441,7 +14382,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -13478,7 +14419,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -13562,10 +14503,18 @@
       <c r="A4" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.2</v>
       </c>
@@ -13590,19 +14539,35 @@
       <c r="M4" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -13627,19 +14592,35 @@
       <c r="M5" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>1.5</v>
       </c>
@@ -13664,19 +14645,35 @@
       <c r="M6" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.1</v>
       </c>
@@ -13701,19 +14698,35 @@
       <c r="M7" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="A8" s="10" t="n">
+        <v>920</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1</v>
       </c>
@@ -13738,19 +14751,35 @@
       <c r="M8" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -13775,19 +14804,35 @@
       <c r="M9" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1600</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.56</v>
       </c>
@@ -13812,19 +14857,35 @@
       <c r="M10" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1840</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.49</v>
       </c>
@@ -13849,23 +14910,39 @@
       <c r="M11" s="17" t="n">
         <v>34</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2560</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.35</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>4400</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -13877,7 +14954,7 @@
       <c r="J12" s="15" t="n">
         <v>0.55</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>4200</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -13886,23 +14963,39 @@
       <c r="M12" s="17" t="n">
         <v>29</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>3200</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>4400</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -13914,7 +15007,7 @@
       <c r="J13" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>4200</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -13923,10 +15016,18 @@
       <c r="M13" s="20" t="n">
         <v>24</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13957,7 +15058,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -13994,7 +15095,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -14499,13 +15600,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>80</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>3900</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -14517,7 +15618,7 @@
       <c r="F12" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>3300</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -14529,7 +15630,7 @@
       <c r="J12" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>2900</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -14541,7 +15642,7 @@
       <c r="N12" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>2175</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -14558,7 +15659,7 @@
       <c r="B13" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="19" t="n">
         <v>3400</v>
       </c>
       <c r="D13" s="19" t="n">
@@ -14570,7 +15671,7 @@
       <c r="F13" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>3000</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -14582,7 +15683,7 @@
       <c r="J13" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>2700</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -14594,7 +15695,7 @@
       <c r="N13" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="19" t="n">
         <v>2025</v>
       </c>
       <c r="P13" s="19" t="n">
@@ -14670,8 +15771,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>15</v>
+      <c r="A2" s="23" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -15176,13 +16277,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>70</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>7.1</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>45</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -15194,7 +16295,7 @@
       <c r="F12" s="15" t="n">
         <v>12.9</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>39</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -15206,7 +16307,7 @@
       <c r="J12" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>29</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -15215,10 +16316,10 @@
       <c r="M12" s="17" t="n">
         <v>55</v>
       </c>
-      <c r="N12" s="26" t="n">
+      <c r="N12" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>22</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -15310,7 +16411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -15347,7 +16448,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -15852,13 +16953,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>300</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="19" t="n">
         <v>4000</v>
       </c>
       <c r="D12" s="19" t="n">
@@ -15870,7 +16971,7 @@
       <c r="F12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="19" t="n">
         <v>3600</v>
       </c>
       <c r="H12" s="19" t="n">
@@ -15882,7 +16983,7 @@
       <c r="J12" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="K12" s="29" t="n">
+      <c r="K12" s="19" t="n">
         <v>3400</v>
       </c>
       <c r="L12" s="19" t="n">
@@ -15894,7 +16995,7 @@
       <c r="N12" s="18" t="n">
         <v>9.3</v>
       </c>
-      <c r="O12" s="29" t="n">
+      <c r="O12" s="19" t="n">
         <v>3000</v>
       </c>
       <c r="P12" s="19" t="n">
@@ -15933,7 +17034,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -15970,7 +17071,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -16054,10 +17155,18 @@
       <c r="A4" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.2</v>
       </c>
@@ -16082,19 +17191,35 @@
       <c r="M4" s="17" t="n">
         <v>52</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -16119,19 +17244,35 @@
       <c r="M5" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>1.5</v>
       </c>
@@ -16156,19 +17297,35 @@
       <c r="M6" s="17" t="n">
         <v>43</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.1</v>
       </c>
@@ -16193,19 +17350,35 @@
       <c r="M7" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>920</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1</v>
       </c>
@@ -16230,19 +17403,35 @@
       <c r="M8" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -16267,19 +17456,35 @@
       <c r="M9" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1600</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.56</v>
       </c>
@@ -16304,19 +17509,35 @@
       <c r="M10" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1840</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.49</v>
       </c>
@@ -16341,23 +17562,39 @@
       <c r="M11" s="17" t="n">
         <v>30</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2560</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.35</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>6500</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -16369,7 +17606,7 @@
       <c r="J12" s="15" t="n">
         <v>0.55</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>6300</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -16378,23 +17615,39 @@
       <c r="M12" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>3200</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>6500</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -16406,7 +17659,7 @@
       <c r="J13" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>6300</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -16415,10 +17668,18 @@
       <c r="M13" s="20" t="n">
         <v>22</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -16449,7 +17710,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -16486,7 +17747,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -16991,13 +18252,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>80</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>5400</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -17009,7 +18270,7 @@
       <c r="F12" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>5200</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -17021,7 +18282,7 @@
       <c r="J12" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>3900</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -17033,7 +18294,7 @@
       <c r="N12" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>2925</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -17050,7 +18311,7 @@
       <c r="B13" s="18" t="n">
         <v>5</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="19" t="n">
         <v>5000</v>
       </c>
       <c r="D13" s="19" t="n">
@@ -17062,7 +18323,7 @@
       <c r="F13" s="18" t="n">
         <v>9</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>4800</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -17074,7 +18335,7 @@
       <c r="J13" s="18" t="n">
         <v>14</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>3650</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -17086,7 +18347,7 @@
       <c r="N13" s="18" t="n">
         <v>28</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="19" t="n">
         <v>2738</v>
       </c>
       <c r="P13" s="19" t="n">
@@ -17125,7 +18386,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -17162,7 +18423,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -17667,13 +18928,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>300</v>
       </c>
       <c r="B12" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="C12" s="29" t="n">
+      <c r="C12" s="19" t="n">
         <v>6000</v>
       </c>
       <c r="D12" s="19" t="n">
@@ -17685,7 +18946,7 @@
       <c r="F12" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="19" t="n">
         <v>5300</v>
       </c>
       <c r="H12" s="19" t="n">
@@ -17697,7 +18958,7 @@
       <c r="J12" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="K12" s="29" t="n">
+      <c r="K12" s="19" t="n">
         <v>5000</v>
       </c>
       <c r="L12" s="19" t="n">
@@ -17709,7 +18970,7 @@
       <c r="N12" s="18" t="n">
         <v>9.3</v>
       </c>
-      <c r="O12" s="29" t="n">
+      <c r="O12" s="19" t="n">
         <v>4800</v>
       </c>
       <c r="P12" s="19" t="n">
@@ -17748,7 +19009,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -17785,7 +19046,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -17869,10 +19130,18 @@
       <c r="A4" s="10" t="n">
         <v>280</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.2</v>
       </c>
@@ -17897,19 +19166,35 @@
       <c r="M4" s="17" t="n">
         <v>53</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>400</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.3</v>
       </c>
@@ -17934,19 +19219,35 @@
       <c r="M5" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>600</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>1.5</v>
       </c>
@@ -17971,19 +19272,35 @@
       <c r="M6" s="17" t="n">
         <v>44</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.1</v>
       </c>
@@ -18008,19 +19325,35 @@
       <c r="M7" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>920</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>0.98</v>
       </c>
@@ -18045,19 +19378,35 @@
       <c r="M8" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>1200</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>0.75</v>
       </c>
@@ -18082,19 +19431,35 @@
       <c r="M9" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1600</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.56</v>
       </c>
@@ -18119,19 +19484,35 @@
       <c r="M10" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1840</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.49</v>
       </c>
@@ -18156,23 +19537,39 @@
       <c r="M11" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2560</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.35</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>9200</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -18184,7 +19581,7 @@
       <c r="J12" s="15" t="n">
         <v>0.55</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>9000</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -18193,23 +19590,39 @@
       <c r="M12" s="17" t="n">
         <v>25</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>3200</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.28</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>9200</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -18221,7 +19634,7 @@
       <c r="J13" s="18" t="n">
         <v>0.44</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>9000</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -18230,13 +19643,21 @@
       <c r="M13" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="27"/>
+      <c r="G14" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18304,8 +19725,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>16</v>
+      <c r="A2" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -18389,10 +19810,18 @@
       <c r="A4" s="6" t="n">
         <v>245</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.7</v>
       </c>
@@ -18417,19 +19846,35 @@
       <c r="M4" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>350</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.6</v>
       </c>
@@ -18454,19 +19899,35 @@
       <c r="M5" s="17" t="n">
         <v>36</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>420</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2.1</v>
       </c>
@@ -18491,19 +19952,35 @@
       <c r="M6" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>560</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.6</v>
       </c>
@@ -18528,19 +20005,35 @@
       <c r="M7" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -18565,19 +20058,35 @@
       <c r="M8" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>840</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1.1</v>
       </c>
@@ -18602,19 +20111,35 @@
       <c r="M9" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1120</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.8</v>
       </c>
@@ -18639,19 +20164,35 @@
       <c r="M10" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1680</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.54</v>
       </c>
@@ -18676,23 +20217,39 @@
       <c r="M11" s="17" t="n">
         <v>26</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2100</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
+      <c r="B12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="18" t="n">
         <v>0.43</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="19" t="n">
         <v>70</v>
       </c>
       <c r="H12" s="19" t="n">
@@ -18704,7 +20261,7 @@
       <c r="J12" s="18" t="n">
         <v>0.67</v>
       </c>
-      <c r="K12" s="29" t="n">
+      <c r="K12" s="19" t="n">
         <v>60</v>
       </c>
       <c r="L12" s="19" t="n">
@@ -18713,10 +20270,18 @@
       <c r="M12" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="N12" s="28"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="20"/>
+      <c r="N12" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -18747,7 +20312,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -18783,8 +20348,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>17</v>
+      <c r="A2" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -19291,13 +20856,13 @@
       <c r="V11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>60</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>8.3</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>69</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -19309,7 +20874,7 @@
       <c r="F12" s="15" t="n">
         <v>15</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>64</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -19321,7 +20886,7 @@
       <c r="J12" s="15" t="n">
         <v>23.3</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>59</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -19333,7 +20898,7 @@
       <c r="N12" s="15" t="n">
         <v>47</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>44</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -19351,7 +20916,7 @@
       <c r="B13" s="15" t="n">
         <v>7.1</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>69</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -19363,7 +20928,7 @@
       <c r="F13" s="15" t="n">
         <v>12.9</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>60</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -19375,7 +20940,7 @@
       <c r="J13" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>55</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -19387,7 +20952,7 @@
       <c r="N13" s="15" t="n">
         <v>40</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>41</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -19405,7 +20970,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>59</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -19417,7 +20982,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>58</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -19429,7 +20994,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>54</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -19441,7 +21006,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>41</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -19535,7 +21100,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -19571,8 +21136,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>18</v>
+      <c r="A2" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -19645,7 +21210,7 @@
       <c r="O3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="33" t="s">
+      <c r="P3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="Q3" s="5" t="s">
@@ -20077,13 +21642,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>240</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>68</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -20095,7 +21660,7 @@
       <c r="F12" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>64</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -20107,7 +21672,7 @@
       <c r="J12" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>59</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -20119,7 +21684,7 @@
       <c r="N12" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>58</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -20136,7 +21701,7 @@
       <c r="B13" s="18" t="n">
         <v>1.7</v>
       </c>
-      <c r="C13" s="29" t="n">
+      <c r="C13" s="19" t="n">
         <v>65</v>
       </c>
       <c r="D13" s="19" t="n">
@@ -20148,7 +21713,7 @@
       <c r="F13" s="18" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>63</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -20160,7 +21725,7 @@
       <c r="J13" s="18" t="n">
         <v>4.7</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>59</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -20172,7 +21737,7 @@
       <c r="N13" s="18" t="n">
         <v>9.3</v>
       </c>
-      <c r="O13" s="29" t="n">
+      <c r="O13" s="19" t="n">
         <v>52</v>
       </c>
       <c r="P13" s="19" t="n">
@@ -20211,7 +21776,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -20247,8 +21812,8 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
-        <v>19</v>
+      <c r="A2" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -20332,10 +21897,18 @@
       <c r="A4" s="6" t="n">
         <v>240</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" s="13" t="n">
         <v>3.8</v>
       </c>
@@ -20360,19 +21933,35 @@
       <c r="M4" s="17" t="n">
         <v>45</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="17"/>
+      <c r="N4" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>315</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
+      <c r="B5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" s="15" t="n">
         <v>2.9</v>
       </c>
@@ -20397,19 +21986,35 @@
       <c r="M5" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="17"/>
+      <c r="N5" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>420</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" s="15" t="n">
         <v>2.1</v>
       </c>
@@ -20434,19 +22039,35 @@
       <c r="M6" s="17" t="n">
         <v>41</v>
       </c>
-      <c r="N6" s="15"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>540</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F7" s="15" t="n">
         <v>1.7</v>
       </c>
@@ -20471,19 +22092,35 @@
       <c r="M7" s="17" t="n">
         <v>37</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>720</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F8" s="15" t="n">
         <v>1.3</v>
       </c>
@@ -20508,19 +22145,35 @@
       <c r="M8" s="17" t="n">
         <v>39</v>
       </c>
-      <c r="N8" s="15"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="17"/>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>900</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
+      <c r="B9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
@@ -20545,19 +22198,35 @@
       <c r="M9" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="17"/>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>1120</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
+      <c r="B10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F10" s="15" t="n">
         <v>0.8</v>
       </c>
@@ -20582,19 +22251,35 @@
       <c r="M10" s="17" t="n">
         <v>31</v>
       </c>
-      <c r="N10" s="15"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="17"/>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>1440</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
+      <c r="B11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" s="15" t="n">
         <v>0.63</v>
       </c>
@@ -20619,23 +22304,39 @@
       <c r="M11" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="17"/>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>2160</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
+      <c r="B12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F12" s="15" t="n">
         <v>0.42</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>100</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -20647,7 +22348,7 @@
       <c r="J12" s="15" t="n">
         <v>0.65</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>95</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -20656,23 +22357,39 @@
       <c r="M12" s="17" t="n">
         <v>21</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2700</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
+      <c r="B13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="20" t="n">
+        <v>0</v>
+      </c>
       <c r="F13" s="18" t="n">
         <v>0.33</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="19" t="n">
         <v>100</v>
       </c>
       <c r="H13" s="19" t="n">
@@ -20684,7 +22401,7 @@
       <c r="J13" s="18" t="n">
         <v>0.52</v>
       </c>
-      <c r="K13" s="29" t="n">
+      <c r="K13" s="19" t="n">
         <v>95</v>
       </c>
       <c r="L13" s="19" t="n">
@@ -20693,10 +22410,18 @@
       <c r="M13" s="20" t="n">
         <v>17</v>
       </c>
-      <c r="N13" s="18"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="20"/>
+      <c r="N13" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -20727,7 +22452,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -20764,7 +22489,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -21269,13 +22994,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>45</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>11.1</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>170</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -21287,7 +23012,7 @@
       <c r="F12" s="15" t="n">
         <v>20</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>155</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -21299,7 +23024,7 @@
       <c r="J12" s="15" t="n">
         <v>31</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>145</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -21311,7 +23036,7 @@
       <c r="N12" s="15" t="n">
         <v>62</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>130</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -21328,7 +23053,7 @@
       <c r="B13" s="15" t="n">
         <v>7.8</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>150</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -21340,7 +23065,7 @@
       <c r="F13" s="15" t="n">
         <v>14.1</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>135</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -21352,7 +23077,7 @@
       <c r="J13" s="15" t="n">
         <v>21.9</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>125</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -21364,7 +23089,7 @@
       <c r="N13" s="15" t="n">
         <v>44</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>110</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -21381,7 +23106,7 @@
       <c r="B14" s="15" t="n">
         <v>6.3</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>315</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -21393,7 +23118,7 @@
       <c r="F14" s="15" t="n">
         <v>11.3</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>125</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -21405,7 +23130,7 @@
       <c r="J14" s="15" t="n">
         <v>17.5</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>115</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -21417,7 +23142,7 @@
       <c r="N14" s="15" t="n">
         <v>35</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>100</v>
       </c>
       <c r="P14" s="16" t="n">
@@ -21509,7 +23234,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4375" defaultRowHeight="18.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="2" style="0" width="12.14"/>
@@ -21546,7 +23271,7 @@
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -22051,13 +23776,13 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="32" t="n">
+      <c r="A12" s="24" t="n">
         <v>135</v>
       </c>
       <c r="B12" s="15" t="n">
         <v>3.7</v>
       </c>
-      <c r="C12" s="27" t="n">
+      <c r="C12" s="16" t="n">
         <v>190</v>
       </c>
       <c r="D12" s="16" t="n">
@@ -22069,7 +23794,7 @@
       <c r="F12" s="15" t="n">
         <v>6.7</v>
       </c>
-      <c r="G12" s="27" t="n">
+      <c r="G12" s="16" t="n">
         <v>180</v>
       </c>
       <c r="H12" s="16" t="n">
@@ -22081,7 +23806,7 @@
       <c r="J12" s="15" t="n">
         <v>10.4</v>
       </c>
-      <c r="K12" s="27" t="n">
+      <c r="K12" s="16" t="n">
         <v>170</v>
       </c>
       <c r="L12" s="16" t="n">
@@ -22093,7 +23818,7 @@
       <c r="N12" s="15" t="n">
         <v>20.7</v>
       </c>
-      <c r="O12" s="27" t="n">
+      <c r="O12" s="16" t="n">
         <v>155</v>
       </c>
       <c r="P12" s="16" t="n">
@@ -22110,7 +23835,7 @@
       <c r="B13" s="15" t="n">
         <v>2.6</v>
       </c>
-      <c r="C13" s="27" t="n">
+      <c r="C13" s="16" t="n">
         <v>150</v>
       </c>
       <c r="D13" s="16" t="n">
@@ -22122,7 +23847,7 @@
       <c r="F13" s="15" t="n">
         <v>4.7</v>
       </c>
-      <c r="G13" s="27" t="n">
+      <c r="G13" s="16" t="n">
         <v>150</v>
       </c>
       <c r="H13" s="16" t="n">
@@ -22134,7 +23859,7 @@
       <c r="J13" s="15" t="n">
         <v>7.3</v>
       </c>
-      <c r="K13" s="27" t="n">
+      <c r="K13" s="16" t="n">
         <v>150</v>
       </c>
       <c r="L13" s="16" t="n">
@@ -22146,7 +23871,7 @@
       <c r="N13" s="15" t="n">
         <v>14.6</v>
       </c>
-      <c r="O13" s="27" t="n">
+      <c r="O13" s="16" t="n">
         <v>135</v>
       </c>
       <c r="P13" s="16" t="n">
@@ -22163,7 +23888,7 @@
       <c r="B14" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="C14" s="27" t="n">
+      <c r="C14" s="16" t="n">
         <v>140</v>
       </c>
       <c r="D14" s="16" t="n">
@@ -22175,7 +23900,7 @@
       <c r="F14" s="15" t="n">
         <v>3.8</v>
       </c>
-      <c r="G14" s="27" t="n">
+      <c r="G14" s="16" t="n">
         <v>140</v>
       </c>
       <c r="H14" s="16" t="n">
@@ -22187,7 +23912,7 @@
       <c r="J14" s="15" t="n">
         <v>5.8</v>
       </c>
-      <c r="K14" s="27" t="n">
+      <c r="K14" s="16" t="n">
         <v>135</v>
       </c>
       <c r="L14" s="16" t="n">
@@ -22199,7 +23924,7 @@
       <c r="N14" s="15" t="n">
         <v>11.7</v>
       </c>
-      <c r="O14" s="27" t="n">
+      <c r="O14" s="16" t="n">
         <v>125</v>
       </c>
       <c r="P14" s="16" t="n">
